--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Csf3-Csf3r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Csf3</t>
   </si>
   <si>
     <t>Csf3r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.10425</v>
+        <v>0.6262416666666667</v>
       </c>
       <c r="H2">
-        <v>0.31275</v>
+        <v>1.878725</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.664168335284768</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6641683352847682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01797466666666667</v>
+        <v>0.054819</v>
       </c>
       <c r="N2">
-        <v>0.053924</v>
+        <v>0.164457</v>
       </c>
       <c r="O2">
-        <v>0.0005540697090057207</v>
+        <v>0.001660638168858053</v>
       </c>
       <c r="P2">
-        <v>0.0005540697090057207</v>
+        <v>0.001660638168858053</v>
       </c>
       <c r="Q2">
-        <v>0.001873859</v>
+        <v>0.034329941925</v>
       </c>
       <c r="R2">
-        <v>0.016864731</v>
+        <v>0.308969477325</v>
       </c>
       <c r="S2">
-        <v>0.0005540697090057207</v>
+        <v>0.001102943288120799</v>
       </c>
       <c r="T2">
-        <v>0.0005540697090057207</v>
+        <v>0.001102943288120799</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,108 +596,294 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.10425</v>
+        <v>0.6262416666666667</v>
       </c>
       <c r="H3">
-        <v>0.31275</v>
+        <v>1.878725</v>
       </c>
       <c r="I3">
+        <v>0.664168335284768</v>
+      </c>
+      <c r="J3">
+        <v>0.6641683352847682</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.430714</v>
+        <v>32.95598433333333</v>
       </c>
       <c r="N3">
-        <v>1.292142</v>
+        <v>98.867953</v>
       </c>
       <c r="O3">
-        <v>0.01327677364316575</v>
+        <v>0.9983393618311419</v>
       </c>
       <c r="P3">
-        <v>0.01327677364316575</v>
+        <v>0.9983393618311419</v>
       </c>
       <c r="Q3">
-        <v>0.0449019345</v>
+        <v>20.63841055554722</v>
       </c>
       <c r="R3">
-        <v>0.4041174104999999</v>
+        <v>185.745694999925</v>
       </c>
       <c r="S3">
-        <v>0.01327677364316575</v>
+        <v>0.6630653919966473</v>
       </c>
       <c r="T3">
-        <v>0.01327677364316575</v>
+        <v>0.6630653919966474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.083955</v>
+      </c>
+      <c r="H4">
+        <v>0.251865</v>
+      </c>
+      <c r="I4">
+        <v>0.08903951231100779</v>
+      </c>
+      <c r="J4">
+        <v>0.08903951231100779</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.054819</v>
+      </c>
+      <c r="N4">
+        <v>0.164457</v>
+      </c>
+      <c r="O4">
+        <v>0.001660638168858053</v>
+      </c>
+      <c r="P4">
+        <v>0.001660638168858053</v>
+      </c>
+      <c r="Q4">
+        <v>0.004602329145</v>
+      </c>
+      <c r="R4">
+        <v>0.041420962305</v>
+      </c>
+      <c r="S4">
+        <v>0.0001478624126801661</v>
+      </c>
+      <c r="T4">
+        <v>0.0001478624126801661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.083955</v>
+      </c>
+      <c r="H5">
+        <v>0.251865</v>
+      </c>
+      <c r="I5">
+        <v>0.08903951231100779</v>
+      </c>
+      <c r="J5">
+        <v>0.08903951231100779</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>32.95598433333333</v>
+      </c>
+      <c r="N5">
+        <v>98.867953</v>
+      </c>
+      <c r="O5">
+        <v>0.9983393618311419</v>
+      </c>
+      <c r="P5">
+        <v>0.9983393618311419</v>
+      </c>
+      <c r="Q5">
+        <v>2.766819664705</v>
+      </c>
+      <c r="R5">
+        <v>24.901376982345</v>
+      </c>
+      <c r="S5">
+        <v>0.08889164989832762</v>
+      </c>
+      <c r="T5">
+        <v>0.08889164989832762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.10425</v>
-      </c>
-      <c r="H4">
-        <v>0.31275</v>
-      </c>
-      <c r="I4">
+      <c r="G6">
+        <v>0.2326993333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.698098</v>
+      </c>
+      <c r="I6">
+        <v>0.2467921524042241</v>
+      </c>
+      <c r="J6">
+        <v>0.2467921524042241</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.054819</v>
+      </c>
+      <c r="N6">
+        <v>0.164457</v>
+      </c>
+      <c r="O6">
+        <v>0.001660638168858053</v>
+      </c>
+      <c r="P6">
+        <v>0.001660638168858053</v>
+      </c>
+      <c r="Q6">
+        <v>0.012756344754</v>
+      </c>
+      <c r="R6">
+        <v>0.114807102786</v>
+      </c>
+      <c r="S6">
+        <v>0.0004098324680570884</v>
+      </c>
+      <c r="T6">
+        <v>0.0004098324680570884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.2326993333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.698098</v>
+      </c>
+      <c r="I7">
+        <v>0.2467921524042241</v>
+      </c>
+      <c r="J7">
+        <v>0.2467921524042241</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>31.992476</v>
-      </c>
-      <c r="N4">
-        <v>95.977428</v>
-      </c>
-      <c r="O4">
-        <v>0.9861691566478286</v>
-      </c>
-      <c r="P4">
-        <v>0.9861691566478286</v>
-      </c>
-      <c r="Q4">
-        <v>3.335215623</v>
-      </c>
-      <c r="R4">
-        <v>30.016940607</v>
-      </c>
-      <c r="S4">
-        <v>0.9861691566478286</v>
-      </c>
-      <c r="T4">
-        <v>0.9861691566478286</v>
+      <c r="M7">
+        <v>32.95598433333333</v>
+      </c>
+      <c r="N7">
+        <v>98.867953</v>
+      </c>
+      <c r="O7">
+        <v>0.9983393618311419</v>
+      </c>
+      <c r="P7">
+        <v>0.9983393618311419</v>
+      </c>
+      <c r="Q7">
+        <v>7.668835583710445</v>
+      </c>
+      <c r="R7">
+        <v>69.01952025339401</v>
+      </c>
+      <c r="S7">
+        <v>0.246382319936167</v>
+      </c>
+      <c r="T7">
+        <v>0.246382319936167</v>
       </c>
     </row>
   </sheetData>
